--- a/EEPROM_Parameters.xlsx
+++ b/EEPROM_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kento Kikuchi\Documents\ケイ・アクシス\03.開発設計\0320.自宅運転台\Arduino\MC53_ME38_BVE\図面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D2099EC-C6AB-488C-B45E-0876C9C41399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF677DE2-F038-4188-AB54-2EFF3151EB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{DFC896E3-33E5-4CD0-8E08-0C2F69A62AB3}"/>
   </bookViews>
@@ -1064,7 +1064,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="000"/>
+    <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1203,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1215,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1227,9 +1227,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,6 +1235,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1556,10 +1556,10 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:G1"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1573,21 +1573,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>115200</v>
       </c>
       <c r="C2" s="10"/>
@@ -1596,40 +1596,40 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>103</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>8</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>104</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="10"/>
@@ -1641,10 +1641,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="10"/>
@@ -1841,7 +1841,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="5">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>64</v>
@@ -1864,7 +1864,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="5">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>64</v>
@@ -1887,7 +1887,7 @@
         <v>41</v>
       </c>
       <c r="F17" s="5">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>64</v>
@@ -1910,7 +1910,7 @@
         <v>41</v>
       </c>
       <c r="F18" s="5">
-        <v>680</v>
+        <v>1010</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>64</v>
@@ -1933,7 +1933,7 @@
         <v>41</v>
       </c>
       <c r="F19" s="5">
-        <v>1010</v>
+        <v>1330</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>64</v>
@@ -1956,7 +1956,7 @@
         <v>41</v>
       </c>
       <c r="F20" s="5">
-        <v>1330</v>
+        <v>1650</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>64</v>
@@ -1979,7 +1979,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="5">
-        <v>1650</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>64</v>
@@ -2002,7 +2002,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="5">
-        <v>2000</v>
+        <v>2340</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>64</v>
@@ -2025,7 +2025,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="5">
-        <v>2340</v>
+        <v>2680</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>64</v>
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="5">
-        <v>2680</v>
+        <v>3020</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>64</v>
@@ -2071,7 +2071,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="5">
-        <v>3020</v>
+        <v>3340</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>64</v>
@@ -2094,7 +2094,7 @@
         <v>41</v>
       </c>
       <c r="F26" s="5">
-        <v>3340</v>
+        <v>3650</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>64</v>
@@ -2117,7 +2117,7 @@
         <v>41</v>
       </c>
       <c r="F27" s="5">
-        <v>3650</v>
+        <v>4000</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>64</v>
@@ -2140,7 +2140,7 @@
         <v>41</v>
       </c>
       <c r="F28" s="5">
-        <v>4000</v>
+        <v>4095</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>64</v>
